--- a/tests/Feature/config/property_tenpercent.xlsx
+++ b/tests/Feature/config/property_tenpercent.xlsx
@@ -708,6 +708,8 @@
     <col min="32" max="32" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="10.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -3746,10 +3748,10 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>-264349.8</v>
+        <v>-268549.8</v>
       </c>
       <c r="AF38" s="1">
-        <v>-264349.8</v>
+        <v>-268549.8</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1">
@@ -3759,12 +3761,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0.0</v>
+        <v>-150000.0</v>
       </c>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="2">
-        <v>0.08</v>
-      </c>
+      <c r="AL38" s="2"/>
       <c r="AM38"/>
     </row>
     <row r="39" spans="1:39">
@@ -3835,10 +3835,10 @@
       </c>
       <c r="AD39" s="9"/>
       <c r="AE39" s="8">
-        <v>-274865.88</v>
+        <v>-279695.88</v>
       </c>
       <c r="AF39" s="8">
-        <v>-539215.68</v>
+        <v>-548245.68</v>
       </c>
       <c r="AG39" s="9"/>
       <c r="AH39" s="8">
@@ -3848,12 +3848,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ39" s="8">
-        <v>0.0</v>
+        <v>-147381.0</v>
       </c>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="9">
-        <v>0.07</v>
-      </c>
+      <c r="AL39" s="9"/>
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="1:39">
@@ -3924,10 +3922,10 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>-286433.568</v>
+        <v>-291956.568</v>
       </c>
       <c r="AF40" s="11">
-        <v>-825649.248</v>
+        <v>-840202.248</v>
       </c>
       <c r="AG40" s="12"/>
       <c r="AH40" s="11">
@@ -3937,12 +3935,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ40" s="11">
-        <v>0.0</v>
+        <v>-144500.0</v>
       </c>
       <c r="AK40" s="11"/>
-      <c r="AL40" s="12">
-        <v>0.07</v>
-      </c>
+      <c r="AL40" s="12"/>
       <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
@@ -4013,10 +4009,10 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>-299158.368</v>
+        <v>-305443.668</v>
       </c>
       <c r="AF41" s="1">
-        <v>-1124807.616</v>
+        <v>-1145645.916</v>
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="1">
@@ -4026,12 +4022,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>0.0</v>
+        <v>-141331.0</v>
       </c>
       <c r="AK41" s="1"/>
-      <c r="AL41" s="2">
-        <v>0.06</v>
-      </c>
+      <c r="AL41" s="2"/>
       <c r="AM41"/>
     </row>
     <row r="42" spans="1:39">
@@ -4102,10 +4096,10 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>-313155.648</v>
+        <v>-320279.478</v>
       </c>
       <c r="AF42" s="1">
-        <v>-1437963.264</v>
+        <v>-1465925.394</v>
       </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="1">
@@ -4115,12 +4109,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0</v>
+        <v>-137845.0</v>
       </c>
       <c r="AK42" s="1"/>
-      <c r="AL42" s="2">
-        <v>0.06</v>
-      </c>
+      <c r="AL42" s="2"/>
       <c r="AM42"/>
     </row>
     <row r="43" spans="1:39">
@@ -4191,10 +4183,10 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>-328552.656</v>
+        <v>-336598.869</v>
       </c>
       <c r="AF43" s="1">
-        <v>-1766515.92</v>
+        <v>-1802524.263</v>
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="1">
@@ -4204,12 +4196,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.0</v>
+        <v>-134011.0</v>
       </c>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="2">
-        <v>0.05</v>
-      </c>
+      <c r="AL43" s="2"/>
       <c r="AM43"/>
     </row>
     <row r="44" spans="1:39">
@@ -4280,10 +4270,10 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>-345488.85</v>
+        <v>-354549.6843</v>
       </c>
       <c r="AF44" s="1">
-        <v>-2112004.77</v>
+        <v>-2157073.9473</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="1">
@@ -4293,12 +4283,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0.0</v>
+        <v>-129793.0</v>
       </c>
       <c r="AK44" s="1"/>
-      <c r="AL44" s="2">
-        <v>0.05</v>
-      </c>
+      <c r="AL44" s="2"/>
       <c r="AM44"/>
     </row>
     <row r="45" spans="1:39">
@@ -4369,10 +4357,10 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>-364118.832</v>
+        <v>-374295.7491</v>
       </c>
       <c r="AF45" s="1">
-        <v>-2476123.602</v>
+        <v>-2531369.6964</v>
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="1">
@@ -4382,12 +4370,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>-125154.0</v>
       </c>
       <c r="AK45" s="1"/>
-      <c r="AL45" s="2">
-        <v>0.05</v>
-      </c>
+      <c r="AL45" s="2"/>
       <c r="AM45"/>
     </row>
     <row r="46" spans="1:39">
@@ -4458,10 +4444,10 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>-384611.9</v>
+        <v>-396016.5086</v>
       </c>
       <c r="AF46" s="1">
-        <v>-2860735.502</v>
+        <v>-2927386.205</v>
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" s="1">
@@ -4471,12 +4457,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0.0</v>
+        <v>-120050.0</v>
       </c>
       <c r="AK46" s="1"/>
-      <c r="AL46" s="2">
-        <v>0.04</v>
-      </c>
+      <c r="AL46" s="2"/>
       <c r="AM46"/>
     </row>
     <row r="47" spans="1:39">
@@ -4547,10 +4531,10 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>-407154.194</v>
+        <v>-419909.2643</v>
       </c>
       <c r="AF47" s="1">
-        <v>-3267889.696</v>
+        <v>-3347295.4693</v>
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" s="1">
@@ -4560,12 +4544,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0.0</v>
+        <v>-114436.0</v>
       </c>
       <c r="AK47" s="1"/>
-      <c r="AL47" s="2">
-        <v>0.04</v>
-      </c>
+      <c r="AL47" s="2"/>
       <c r="AM47"/>
     </row>
     <row r="48" spans="1:39">
@@ -4636,10 +4618,10 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>-431950.882</v>
+        <v>-446191.4587</v>
       </c>
       <c r="AF48" s="1">
-        <v>-3699840.578</v>
+        <v>-3793486.928</v>
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" s="1">
@@ -4649,12 +4631,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0.0</v>
+        <v>-108261.0</v>
       </c>
       <c r="AK48" s="1"/>
-      <c r="AL48" s="2">
-        <v>0.04</v>
-      </c>
+      <c r="AL48" s="2"/>
       <c r="AM48"/>
     </row>
     <row r="49" spans="1:39">
@@ -4725,10 +4705,10 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>-459226.73</v>
+        <v>-475101.365</v>
       </c>
       <c r="AF49" s="1">
-        <v>-4159067.308</v>
+        <v>-4268588.293</v>
       </c>
       <c r="AG49" s="2"/>
       <c r="AH49" s="1">
@@ -4738,12 +4718,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0.0</v>
+        <v>-101468.0</v>
       </c>
       <c r="AK49" s="1"/>
-      <c r="AL49" s="2">
-        <v>0.04</v>
-      </c>
+      <c r="AL49" s="2"/>
       <c r="AM49"/>
     </row>
     <row r="50" spans="1:39">
@@ -4814,10 +4792,10 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>-489230.932</v>
+        <v>-506903.0305</v>
       </c>
       <c r="AF50" s="1">
-        <v>-4648298.24</v>
+        <v>-4775491.3235</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="1">
@@ -4827,12 +4805,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0.0</v>
+        <v>-93996.0</v>
       </c>
       <c r="AK50" s="1"/>
-      <c r="AL50" s="2">
-        <v>0.03</v>
-      </c>
+      <c r="AL50" s="2"/>
       <c r="AM50"/>
     </row>
     <row r="51" spans="1:39">
@@ -4903,10 +4879,10 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>-522235.216</v>
+        <v>-541884.5254</v>
       </c>
       <c r="AF51" s="1">
-        <v>-5170533.456</v>
+        <v>-5317375.8489</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="1">
@@ -4916,12 +4892,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0.0</v>
+        <v>-85776.0</v>
       </c>
       <c r="AK51" s="1"/>
-      <c r="AL51" s="2">
-        <v>0.03</v>
-      </c>
+      <c r="AL51" s="2"/>
       <c r="AM51"/>
     </row>
     <row r="52" spans="1:39">
@@ -4992,10 +4966,10 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>-558539.662</v>
+        <v>-580363.9015</v>
       </c>
       <c r="AF52" s="1">
-        <v>-5729073.118</v>
+        <v>-5897739.7504</v>
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="1">
@@ -5005,12 +4979,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.0</v>
+        <v>-76735.0</v>
       </c>
       <c r="AK52" s="1"/>
-      <c r="AL52" s="2">
-        <v>0.03</v>
-      </c>
+      <c r="AL52" s="2"/>
       <c r="AM52"/>
     </row>
     <row r="53" spans="1:39">
@@ -5081,10 +5053,10 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>-598474.39</v>
+        <v>-622691.0545</v>
       </c>
       <c r="AF53" s="13">
-        <v>-6327547.508</v>
+        <v>-6520430.8049</v>
       </c>
       <c r="AG53" s="14"/>
       <c r="AH53" s="13">
@@ -5094,12 +5066,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ53" s="13">
-        <v>0.0</v>
+        <v>-66790.0</v>
       </c>
       <c r="AK53" s="13"/>
-      <c r="AL53" s="14">
-        <v>0.03</v>
-      </c>
+      <c r="AL53" s="14"/>
       <c r="AM53" s="3"/>
     </row>
     <row r="54" spans="1:39">
@@ -5170,10 +5140,10 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>-642402.934</v>
+        <v>-669251.266</v>
       </c>
       <c r="AF54" s="1">
-        <v>-6969950.442</v>
+        <v>-7189682.0709</v>
       </c>
       <c r="AG54" s="2"/>
       <c r="AH54" s="1">
@@ -5183,12 +5153,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0.0</v>
+        <v>-55850.0</v>
       </c>
       <c r="AK54" s="1"/>
-      <c r="AL54" s="2">
-        <v>0.03</v>
-      </c>
+      <c r="AL54" s="2"/>
       <c r="AM54"/>
     </row>
     <row r="55" spans="1:39">
@@ -5259,10 +5227,10 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>-690724.07</v>
+        <v>-720467.2352</v>
       </c>
       <c r="AF55" s="1">
-        <v>-7660674.512</v>
+        <v>-7910149.3061</v>
       </c>
       <c r="AG55" s="2"/>
       <c r="AH55" s="1">
@@ -5272,12 +5240,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0.0</v>
+        <v>-43816.0</v>
       </c>
       <c r="AK55" s="1"/>
-      <c r="AL55" s="2">
-        <v>0.03</v>
-      </c>
+      <c r="AL55" s="2"/>
       <c r="AM55"/>
     </row>
     <row r="56" spans="1:39">
@@ -5348,10 +5314,10 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>-743878.004</v>
+        <v>-776805.4853</v>
       </c>
       <c r="AF56" s="1">
-        <v>-8404552.516</v>
+        <v>-8686954.7914</v>
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" s="1">
@@ -5361,12 +5327,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.0</v>
+        <v>-30578.0</v>
       </c>
       <c r="AK56" s="1"/>
-      <c r="AL56" s="2">
-        <v>0.02</v>
-      </c>
+      <c r="AL56" s="2"/>
       <c r="AM56"/>
     </row>
     <row r="57" spans="1:39">
@@ -5437,10 +5401,10 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>-802346.644</v>
+        <v>-838776.8728</v>
       </c>
       <c r="AF57" s="13">
-        <v>-9206899.16</v>
+        <v>-9525731.6642</v>
       </c>
       <c r="AG57" s="14"/>
       <c r="AH57" s="13">
@@ -5450,12 +5414,10 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ57" s="13">
-        <v>0.0</v>
+        <v>-16017.0</v>
       </c>
       <c r="AK57" s="13"/>
-      <c r="AL57" s="14">
-        <v>0.02</v>
-      </c>
+      <c r="AL57" s="14"/>
       <c r="AM57" s="3"/>
     </row>
     <row r="58" spans="1:39">
@@ -5526,10 +5488,10 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>-690473.582</v>
+        <v>-730756.8341</v>
       </c>
       <c r="AF58" s="1">
-        <v>-9897372.742</v>
+        <v>-10256488.4983</v>
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" s="1">
@@ -5613,10 +5575,10 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>-761220.596</v>
+        <v>-805742.1731</v>
       </c>
       <c r="AF59" s="1">
-        <v>-10658593.338</v>
+        <v>-11062230.6714</v>
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" s="1">
@@ -5700,10 +5662,10 @@
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>-839042.912</v>
+        <v>-888226.6466</v>
       </c>
       <c r="AF60" s="1">
-        <v>-11497636.25</v>
+        <v>-11950457.318</v>
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" s="1">
@@ -5787,10 +5749,10 @@
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>-924646.864</v>
+        <v>-978958.9729</v>
       </c>
       <c r="AF61" s="1">
-        <v>-12422283.114</v>
+        <v>-12929416.2909</v>
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" s="1">
@@ -5874,10 +5836,10 @@
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>-1018811.294</v>
+        <v>-1078764.614</v>
       </c>
       <c r="AF62" s="1">
-        <v>-13441094.408</v>
+        <v>-14008180.9049</v>
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" s="1">
@@ -5961,10 +5923,10 @@
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>-1122392.166</v>
+        <v>-1188550.818</v>
       </c>
       <c r="AF63" s="1">
-        <v>-14563486.574</v>
+        <v>-15196731.7229</v>
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" s="1">
@@ -6048,10 +6010,10 @@
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>-1236331.64</v>
+        <v>-1309316.1572</v>
       </c>
       <c r="AF64" s="1">
-        <v>-15799818.214</v>
+        <v>-16506047.8801</v>
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" s="1">
@@ -6135,10 +6097,10 @@
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>-1361664.802</v>
+        <v>-1442157.7705</v>
       </c>
       <c r="AF65" s="1">
-        <v>-17161483.016</v>
+        <v>-17948205.6506</v>
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="1">
@@ -6222,10 +6184,10 @@
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>-1499530.944</v>
+        <v>-1588283.2104</v>
       </c>
       <c r="AF66" s="1">
-        <v>-18661013.96</v>
+        <v>-19536488.861</v>
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" s="1">
@@ -6309,10 +6271,10 @@
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>-1651184.206</v>
+        <v>-1749021.6982</v>
       </c>
       <c r="AF67" s="1">
-        <v>-20312198.166</v>
+        <v>-21285510.5592</v>
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" s="1">
@@ -6396,10 +6358,10 @@
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>-1818002.882</v>
+        <v>-1925834.123</v>
       </c>
       <c r="AF68" s="1">
-        <v>-22130201.048</v>
+        <v>-23211344.6822</v>
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="1">
@@ -6483,10 +6445,10 @@
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>-2001503.256</v>
+        <v>-2120327.6211</v>
       </c>
       <c r="AF69" s="1">
-        <v>-24131704.304</v>
+        <v>-25331672.3033</v>
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="1">
@@ -6570,10 +6532,10 @@
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>-2203353.838</v>
+        <v>-2334270.6394</v>
       </c>
       <c r="AF70" s="1">
-        <v>-26335058.142</v>
+        <v>-27665942.9427</v>
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" s="1">
@@ -6657,10 +6619,10 @@
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>-2425389.132</v>
+        <v>-2569607.6127</v>
       </c>
       <c r="AF71" s="1">
-        <v>-28760447.274</v>
+        <v>-30235550.5554</v>
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" s="1">
@@ -6744,10 +6706,10 @@
       </c>
       <c r="AD72" s="16"/>
       <c r="AE72" s="5">
-        <v>-2669628.134</v>
+        <v>-2828478.4634</v>
       </c>
       <c r="AF72" s="5">
-        <v>-31430075.408</v>
+        <v>-33064029.0188</v>
       </c>
       <c r="AG72" s="16"/>
       <c r="AH72" s="5">
@@ -7138,6 +7100,8 @@
     <col min="32" max="32" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="10.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -7346,9 +7310,7 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -7377,7 +7339,9 @@
         <v>0</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
         <v>0.0</v>
@@ -7429,9 +7393,7 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -7460,7 +7422,9 @@
         <v>0</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
         <v>0.0</v>
@@ -7512,9 +7476,7 @@
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -7543,7 +7505,9 @@
         <v>0</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
         <v>0.0</v>
@@ -7595,9 +7559,7 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -7626,7 +7588,9 @@
         <v>0</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
         <v>0.0</v>
@@ -7678,9 +7642,7 @@
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -7709,7 +7671,9 @@
         <v>0</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
         <v>0.0</v>
@@ -7761,9 +7725,7 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -7792,7 +7754,9 @@
         <v>0</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
         <v>0.0</v>
@@ -7844,9 +7808,7 @@
       <c r="G12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -7875,7 +7837,9 @@
         <v>0</v>
       </c>
       <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
         <v>0.0</v>
@@ -7927,9 +7891,7 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -7958,7 +7920,9 @@
         <v>0</v>
       </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
         <v>0.0</v>
@@ -8010,9 +7974,7 @@
       <c r="G14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -8041,7 +8003,9 @@
         <v>0</v>
       </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
         <v>0.0</v>
@@ -8093,9 +8057,7 @@
       <c r="G15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
@@ -8124,7 +8086,9 @@
         <v>0</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
         <v>0.0</v>
@@ -8176,9 +8140,7 @@
       <c r="G16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -8207,7 +8169,9 @@
         <v>0</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
         <v>0.0</v>
@@ -8259,9 +8223,7 @@
       <c r="G17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
@@ -8290,7 +8252,9 @@
         <v>0</v>
       </c>
       <c r="X17" s="2"/>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
         <v>0.0</v>
@@ -8342,9 +8306,7 @@
       <c r="G18" s="1">
         <v>0.0</v>
       </c>
-      <c r="H18" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
@@ -8373,7 +8335,9 @@
         <v>0</v>
       </c>
       <c r="X18" s="2"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
         <v>0.0</v>
@@ -8425,9 +8389,7 @@
       <c r="G19" s="1">
         <v>0.0</v>
       </c>
-      <c r="H19" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
@@ -8456,7 +8418,9 @@
         <v>0</v>
       </c>
       <c r="X19" s="2"/>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
         <v>0.0</v>
@@ -8508,9 +8472,7 @@
       <c r="G20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
@@ -8539,7 +8501,9 @@
         <v>0</v>
       </c>
       <c r="X20" s="2"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
         <v>0.0</v>
@@ -8591,9 +8555,7 @@
       <c r="G21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
@@ -8622,7 +8584,9 @@
         <v>0</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
         <v>0.0</v>
@@ -8674,9 +8638,7 @@
       <c r="G22" s="1">
         <v>0.0</v>
       </c>
-      <c r="H22" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
@@ -8705,7 +8667,9 @@
         <v>0</v>
       </c>
       <c r="X22" s="2"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
         <v>0.0</v>
@@ -8757,9 +8721,7 @@
       <c r="G23" s="1">
         <v>0.0</v>
       </c>
-      <c r="H23" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
@@ -8788,7 +8750,9 @@
         <v>0</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
         <v>0.0</v>
@@ -8840,9 +8804,7 @@
       <c r="G24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
@@ -8871,7 +8833,9 @@
         <v>0</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
         <v>0.0</v>
@@ -8923,9 +8887,7 @@
       <c r="G25" s="1">
         <v>0.0</v>
       </c>
-      <c r="H25" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
@@ -8954,7 +8916,9 @@
         <v>0</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
         <v>0.0</v>
@@ -9006,9 +8970,7 @@
       <c r="G26" s="1">
         <v>0.0</v>
       </c>
-      <c r="H26" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
@@ -9037,7 +8999,9 @@
         <v>0</v>
       </c>
       <c r="X26" s="2"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
         <v>0.0</v>
@@ -9089,9 +9053,7 @@
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
-      <c r="H27" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
@@ -9120,7 +9082,9 @@
         <v>0</v>
       </c>
       <c r="X27" s="2"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
         <v>0.0</v>
@@ -9172,9 +9136,7 @@
       <c r="G28" s="1">
         <v>0.0</v>
       </c>
-      <c r="H28" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
@@ -9203,7 +9165,9 @@
         <v>0</v>
       </c>
       <c r="X28" s="2"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
         <v>0.0</v>
@@ -9255,9 +9219,7 @@
       <c r="G29" s="1">
         <v>0.0</v>
       </c>
-      <c r="H29" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
@@ -9286,7 +9248,9 @@
         <v>0</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
         <v>0.0</v>
@@ -9338,9 +9302,7 @@
       <c r="G30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
@@ -9369,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="X30" s="2"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
         <v>0.0</v>
@@ -9421,9 +9385,7 @@
       <c r="G31" s="1">
         <v>0.0</v>
       </c>
-      <c r="H31" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
@@ -9452,7 +9414,9 @@
         <v>0</v>
       </c>
       <c r="X31" s="2"/>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
         <v>0.0</v>
@@ -9504,9 +9468,7 @@
       <c r="G32" s="1">
         <v>0.0</v>
       </c>
-      <c r="H32" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
@@ -9535,7 +9497,9 @@
         <v>0</v>
       </c>
       <c r="X32" s="2"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
         <v>0.0</v>
@@ -9587,9 +9551,7 @@
       <c r="G33" s="1">
         <v>0.0</v>
       </c>
-      <c r="H33" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
@@ -9618,7 +9580,9 @@
         <v>0</v>
       </c>
       <c r="X33" s="2"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
         <v>0.0</v>
@@ -9670,9 +9634,7 @@
       <c r="G34" s="1">
         <v>0.0</v>
       </c>
-      <c r="H34" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
@@ -9701,7 +9663,9 @@
         <v>0</v>
       </c>
       <c r="X34" s="2"/>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
         <v>0.0</v>
@@ -9753,9 +9717,7 @@
       <c r="G35" s="1">
         <v>0.0</v>
       </c>
-      <c r="H35" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
@@ -9784,7 +9746,9 @@
         <v>0</v>
       </c>
       <c r="X35" s="2"/>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
         <v>0.0</v>
@@ -9836,9 +9800,7 @@
       <c r="G36" s="1">
         <v>0.0</v>
       </c>
-      <c r="H36" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
@@ -9867,7 +9829,9 @@
         <v>0</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
         <v>0.0</v>
@@ -9919,9 +9883,7 @@
       <c r="G37" s="1">
         <v>0.0</v>
       </c>
-      <c r="H37" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -9950,7 +9912,9 @@
         <v>0</v>
       </c>
       <c r="X37" s="2"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
         <v>0.0</v>
@@ -10051,8 +10015,12 @@
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="2"/>
+      <c r="Y38" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA38" s="1">
         <v>3000000.0</v>
       </c>
@@ -10064,10 +10032,10 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>-264349.8</v>
+        <v>-268549.8</v>
       </c>
       <c r="AF38" s="1">
-        <v>-264349.8</v>
+        <v>-268549.8</v>
       </c>
       <c r="AG38" s="2">
         <v>0.49127033333333</v>
@@ -10079,7 +10047,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0.0</v>
+        <v>-150000.0</v>
       </c>
       <c r="AK38" s="1"/>
       <c r="AL38" s="2"/>
@@ -10154,8 +10122,12 @@
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="9"/>
+      <c r="Y39" s="8">
+        <v>4830.0</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0.003</v>
+      </c>
       <c r="AA39" s="8">
         <v>3234000.0</v>
       </c>
@@ -10169,10 +10141,10 @@
         <v>0.22</v>
       </c>
       <c r="AE39" s="8">
-        <v>-274865.88</v>
+        <v>-279695.88</v>
       </c>
       <c r="AF39" s="8">
-        <v>-539215.68</v>
+        <v>-548245.68</v>
       </c>
       <c r="AG39" s="9">
         <v>0.43787939393939</v>
@@ -10184,7 +10156,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ39" s="8">
-        <v>0.0</v>
+        <v>-147381.0</v>
       </c>
       <c r="AK39" s="8"/>
       <c r="AL39" s="9"/>
@@ -10259,8 +10231,12 @@
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="12"/>
+      <c r="Y40" s="11">
+        <v>5523.0</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>0.003</v>
+      </c>
       <c r="AA40" s="11">
         <v>3491400.0</v>
       </c>
@@ -10274,10 +10250,10 @@
         <v>0.22</v>
       </c>
       <c r="AE40" s="11">
-        <v>-286433.568</v>
+        <v>-291956.568</v>
       </c>
       <c r="AF40" s="11">
-        <v>-825649.248</v>
+        <v>-840202.248</v>
       </c>
       <c r="AG40" s="12">
         <v>0.38934242424242</v>
@@ -10289,7 +10265,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ40" s="11">
-        <v>0.0</v>
+        <v>-144500.0</v>
       </c>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
@@ -10364,8 +10340,12 @@
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="2"/>
+      <c r="Y41" s="1">
+        <v>6285.3</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA41" s="1">
         <v>3774540.0</v>
       </c>
@@ -10379,10 +10359,10 @@
         <v>0.22</v>
       </c>
       <c r="AE41" s="1">
-        <v>-299158.368</v>
+        <v>-305443.668</v>
       </c>
       <c r="AF41" s="1">
-        <v>-1124807.616</v>
+        <v>-1145645.916</v>
       </c>
       <c r="AG41" s="2">
         <v>0.34521788129226</v>
@@ -10394,7 +10374,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>0.0</v>
+        <v>-141331.0</v>
       </c>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
@@ -10469,8 +10449,12 @@
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="2"/>
+      <c r="Y42" s="1">
+        <v>7123.83</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA42" s="1">
         <v>4085994.0</v>
       </c>
@@ -10484,10 +10468,10 @@
         <v>0.22</v>
       </c>
       <c r="AE42" s="1">
-        <v>-313155.648</v>
+        <v>-320279.478</v>
       </c>
       <c r="AF42" s="1">
-        <v>-1437963.264</v>
+        <v>-1465925.394</v>
       </c>
       <c r="AG42" s="2">
         <v>0.30510461489425</v>
@@ -10499,7 +10483,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0</v>
+        <v>-137845.0</v>
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
@@ -10574,8 +10558,12 @@
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="2"/>
+      <c r="Y43" s="1">
+        <v>8046.213</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA43" s="1">
         <v>4428593.4</v>
       </c>
@@ -10589,10 +10577,10 @@
         <v>0.22</v>
       </c>
       <c r="AE43" s="1">
-        <v>-328552.656</v>
+        <v>-336598.869</v>
       </c>
       <c r="AF43" s="1">
-        <v>-1766515.92</v>
+        <v>-1802524.263</v>
       </c>
       <c r="AG43" s="2">
         <v>0.26863809186738</v>
@@ -10604,7 +10592,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.0</v>
+        <v>-134011.0</v>
       </c>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
@@ -10679,8 +10667,12 @@
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="2"/>
+      <c r="Y44" s="1">
+        <v>9060.8343</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA44" s="1">
         <v>4805452.74</v>
       </c>
@@ -10694,10 +10686,10 @@
         <v>0.22</v>
       </c>
       <c r="AE44" s="1">
-        <v>-345488.85</v>
+        <v>-354549.6843</v>
       </c>
       <c r="AF44" s="1">
-        <v>-2112004.77</v>
+        <v>-2157073.9473</v>
       </c>
       <c r="AG44" s="2">
         <v>0.23548648150793</v>
@@ -10709,7 +10701,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0.0</v>
+        <v>-129793.0</v>
       </c>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
@@ -10784,8 +10776,12 @@
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="2"/>
+      <c r="Y45" s="1">
+        <v>10176.9171</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA45" s="1">
         <v>5219997.78</v>
       </c>
@@ -10799,10 +10795,10 @@
         <v>0.22</v>
       </c>
       <c r="AE45" s="1">
-        <v>-364118.832</v>
+        <v>-374295.7491</v>
       </c>
       <c r="AF45" s="1">
-        <v>-2476123.602</v>
+        <v>-2531369.6964</v>
       </c>
       <c r="AG45" s="2">
         <v>0.20534895523568</v>
@@ -10814,7 +10810,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>-125154.0</v>
       </c>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
@@ -10889,8 +10885,12 @@
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="2"/>
+      <c r="Y46" s="1">
+        <v>11404.6086</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA46" s="1">
         <v>5675997.48</v>
       </c>
@@ -10904,10 +10904,10 @@
         <v>0.22</v>
       </c>
       <c r="AE46" s="1">
-        <v>-384611.9</v>
+        <v>-396016.5086</v>
       </c>
       <c r="AF46" s="1">
-        <v>-2860735.502</v>
+        <v>-2927386.205</v>
       </c>
       <c r="AG46" s="2">
         <v>0.17795096260694</v>
@@ -10919,7 +10919,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0.0</v>
+        <v>-120050.0</v>
       </c>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
@@ -10994,8 +10994,12 @@
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="2"/>
+      <c r="Y47" s="1">
+        <v>12755.0703</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA47" s="1">
         <v>6177597.54</v>
       </c>
@@ -11009,10 +11013,10 @@
         <v>0.22</v>
       </c>
       <c r="AE47" s="1">
-        <v>-407154.194</v>
+        <v>-419909.2643</v>
       </c>
       <c r="AF47" s="1">
-        <v>-3267889.696</v>
+        <v>-3347295.4693</v>
       </c>
       <c r="AG47" s="2">
         <v>0.1530438263897</v>
@@ -11024,7 +11028,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0.0</v>
+        <v>-114436.0</v>
       </c>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
@@ -11099,8 +11103,12 @@
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="2"/>
+      <c r="Y48" s="1">
+        <v>14240.5767</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA48" s="1">
         <v>6729357.06</v>
       </c>
@@ -11114,10 +11122,10 @@
         <v>0.22</v>
       </c>
       <c r="AE48" s="1">
-        <v>-431950.882</v>
+        <v>-446191.4587</v>
       </c>
       <c r="AF48" s="1">
-        <v>-3699840.578</v>
+        <v>-3793486.928</v>
       </c>
       <c r="AG48" s="2">
         <v>0.13040089949824</v>
@@ -11129,7 +11137,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0.0</v>
+        <v>-108261.0</v>
       </c>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
@@ -11204,8 +11212,12 @@
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="2"/>
+      <c r="Y49" s="1">
+        <v>15874.635</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA49" s="1">
         <v>7336293.0</v>
       </c>
@@ -11219,10 +11231,10 @@
         <v>0.22</v>
       </c>
       <c r="AE49" s="1">
-        <v>-459226.73</v>
+        <v>-475101.365</v>
       </c>
       <c r="AF49" s="1">
-        <v>-4159067.308</v>
+        <v>-4268588.293</v>
       </c>
       <c r="AG49" s="2">
         <v>0.10981651644108</v>
@@ -11234,7 +11246,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0.0</v>
+        <v>-101468.0</v>
       </c>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
@@ -11309,8 +11321,12 @@
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="2"/>
+      <c r="Y50" s="1">
+        <v>17672.0985</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA50" s="1">
         <v>8003922.3</v>
       </c>
@@ -11324,10 +11340,10 @@
         <v>0.22</v>
       </c>
       <c r="AE50" s="1">
-        <v>-489230.932</v>
+        <v>-506903.0305</v>
       </c>
       <c r="AF50" s="1">
-        <v>-4648298.24</v>
+        <v>-4775491.3235</v>
       </c>
       <c r="AG50" s="2">
         <v>0.091103349500307</v>
@@ -11339,7 +11355,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0.0</v>
+        <v>-93996.0</v>
       </c>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
@@ -11414,8 +11430,12 @@
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="2"/>
+      <c r="Y51" s="1">
+        <v>19649.3094</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA51" s="1">
         <v>8738314.92</v>
       </c>
@@ -11429,10 +11449,10 @@
         <v>0.22</v>
       </c>
       <c r="AE51" s="1">
-        <v>-522235.216</v>
+        <v>-541884.5254</v>
       </c>
       <c r="AF51" s="1">
-        <v>-5170533.456</v>
+        <v>-5317375.8489</v>
       </c>
       <c r="AG51" s="2">
         <v>0.074091414599123</v>
@@ -11444,7 +11464,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0.0</v>
+        <v>-85776.0</v>
       </c>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
@@ -11519,8 +11539,12 @@
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="2"/>
+      <c r="Y52" s="1">
+        <v>21824.2395</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA52" s="1">
         <v>9546146.1</v>
       </c>
@@ -11534,10 +11558,10 @@
         <v>0.22</v>
       </c>
       <c r="AE52" s="1">
-        <v>-558539.662</v>
+        <v>-580363.9015</v>
       </c>
       <c r="AF52" s="1">
-        <v>-5729073.118</v>
+        <v>-5897739.7504</v>
       </c>
       <c r="AG52" s="2">
         <v>0.058626051624337</v>
@@ -11549,7 +11573,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.0</v>
+        <v>-76735.0</v>
       </c>
       <c r="AK52" s="1"/>
       <c r="AL52" s="2"/>
@@ -11624,8 +11648,12 @@
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="14"/>
+      <c r="Y53" s="13">
+        <v>24216.6645</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>0.003</v>
+      </c>
       <c r="AA53" s="13">
         <v>10434761.1</v>
       </c>
@@ -11639,10 +11667,10 @@
         <v>0.22</v>
       </c>
       <c r="AE53" s="13">
-        <v>-598474.39</v>
+        <v>-622691.0545</v>
       </c>
       <c r="AF53" s="13">
-        <v>-6327547.508</v>
+        <v>-6520430.8049</v>
       </c>
       <c r="AG53" s="14">
         <v>0.044566578716691</v>
@@ -11654,7 +11682,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ53" s="13">
-        <v>0.0</v>
+        <v>-66790.0</v>
       </c>
       <c r="AK53" s="13"/>
       <c r="AL53" s="14"/>
@@ -11729,8 +11757,12 @@
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="2"/>
+      <c r="Y54" s="1">
+        <v>26848.332</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA54" s="1">
         <v>11412237.6</v>
       </c>
@@ -11744,10 +11776,10 @@
         <v>0.22</v>
       </c>
       <c r="AE54" s="1">
-        <v>-642402.934</v>
+        <v>-669251.266</v>
       </c>
       <c r="AF54" s="1">
-        <v>-6969950.442</v>
+        <v>-7189682.0709</v>
       </c>
       <c r="AG54" s="2">
         <v>0.031785240683297</v>
@@ -11759,7 +11791,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0.0</v>
+        <v>-55850.0</v>
       </c>
       <c r="AK54" s="1"/>
       <c r="AL54" s="2"/>
@@ -11834,8 +11866,12 @@
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="2"/>
+      <c r="Y55" s="1">
+        <v>29743.1652</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA55" s="1">
         <v>12487461.36</v>
       </c>
@@ -11849,10 +11885,10 @@
         <v>0.22</v>
       </c>
       <c r="AE55" s="1">
-        <v>-690724.07</v>
+        <v>-720467.2352</v>
       </c>
       <c r="AF55" s="1">
-        <v>-7660674.512</v>
+        <v>-7910149.3061</v>
       </c>
       <c r="AG55" s="2">
         <v>0.020165843940665</v>
@@ -11864,7 +11900,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0.0</v>
+        <v>-43816.0</v>
       </c>
       <c r="AK55" s="1"/>
       <c r="AL55" s="2"/>
@@ -11939,8 +11975,12 @@
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="2"/>
+      <c r="Y56" s="1">
+        <v>32927.4813</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA56" s="1">
         <v>13670207.34</v>
       </c>
@@ -11954,10 +11994,10 @@
         <v>0.22</v>
       </c>
       <c r="AE56" s="1">
-        <v>-743878.004</v>
+        <v>-776805.4853</v>
       </c>
       <c r="AF56" s="1">
-        <v>-8404552.516</v>
+        <v>-8686954.7914</v>
       </c>
       <c r="AG56" s="2">
         <v>0.0096027800891296</v>
@@ -11969,7 +12009,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.0</v>
+        <v>-30578.0</v>
       </c>
       <c r="AK56" s="1"/>
       <c r="AL56" s="2"/>
@@ -12044,8 +12084,12 @@
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="14"/>
+      <c r="Y57" s="13">
+        <v>36430.2288</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>0.003</v>
+      </c>
       <c r="AA57" s="13">
         <v>14971227.84</v>
       </c>
@@ -12059,10 +12103,10 @@
         <v>0.22</v>
       </c>
       <c r="AE57" s="13">
-        <v>-802346.644</v>
+        <v>-838776.8728</v>
       </c>
       <c r="AF57" s="13">
-        <v>-9206899.16</v>
+        <v>-9525731.6642</v>
       </c>
       <c r="AG57" s="14"/>
       <c r="AH57" s="13">
@@ -12072,7 +12116,7 @@
         <v>-880945.0</v>
       </c>
       <c r="AJ57" s="13">
-        <v>0.0</v>
+        <v>-16017.0</v>
       </c>
       <c r="AK57" s="13"/>
       <c r="AL57" s="14"/>
@@ -12137,8 +12181,12 @@
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="2"/>
+      <c r="Y58" s="1">
+        <v>40283.2521</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA58" s="1">
         <v>16402350.78</v>
       </c>
@@ -12152,10 +12200,10 @@
         <v>0.22</v>
       </c>
       <c r="AE58" s="1">
-        <v>-690473.582</v>
+        <v>-730756.8341</v>
       </c>
       <c r="AF58" s="1">
-        <v>-9897372.742</v>
+        <v>-10256488.4983</v>
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" s="1">
@@ -12230,8 +12278,12 @@
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="2"/>
+      <c r="Y59" s="1">
+        <v>44521.5771</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA59" s="1">
         <v>17976585.78</v>
       </c>
@@ -12245,10 +12297,10 @@
         <v>0.22</v>
       </c>
       <c r="AE59" s="1">
-        <v>-761220.596</v>
+        <v>-805742.1731</v>
       </c>
       <c r="AF59" s="1">
-        <v>-10658593.338</v>
+        <v>-11062230.6714</v>
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" s="1">
@@ -12323,8 +12375,12 @@
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="2"/>
+      <c r="Y60" s="1">
+        <v>49183.7346</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA60" s="1">
         <v>19708244.28</v>
       </c>
@@ -12338,10 +12394,10 @@
         <v>0.22</v>
       </c>
       <c r="AE60" s="1">
-        <v>-839042.912</v>
+        <v>-888226.6466</v>
       </c>
       <c r="AF60" s="1">
-        <v>-11497636.25</v>
+        <v>-11950457.318</v>
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" s="1">
@@ -12416,8 +12472,12 @@
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="2"/>
+      <c r="Y61" s="1">
+        <v>54312.1089</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA61" s="1">
         <v>21613069.02</v>
       </c>
@@ -12431,10 +12491,10 @@
         <v>0.22</v>
       </c>
       <c r="AE61" s="1">
-        <v>-924646.864</v>
+        <v>-978958.9729</v>
       </c>
       <c r="AF61" s="1">
-        <v>-12422283.114</v>
+        <v>-12929416.2909</v>
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" s="1">
@@ -12509,8 +12569,12 @@
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="2"/>
+      <c r="Y62" s="1">
+        <v>59953.32</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA62" s="1">
         <v>23708376.0</v>
       </c>
@@ -12524,10 +12588,10 @@
         <v>0.22</v>
       </c>
       <c r="AE62" s="1">
-        <v>-1018811.294</v>
+        <v>-1078764.614</v>
       </c>
       <c r="AF62" s="1">
-        <v>-13441094.408</v>
+        <v>-14008180.9049</v>
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" s="1">
@@ -12602,8 +12666,12 @@
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="2"/>
+      <c r="Y63" s="1">
+        <v>66158.652</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA63" s="1">
         <v>26013213.6</v>
       </c>
@@ -12617,10 +12685,10 @@
         <v>0.22</v>
       </c>
       <c r="AE63" s="1">
-        <v>-1122392.166</v>
+        <v>-1188550.818</v>
       </c>
       <c r="AF63" s="1">
-        <v>-14563486.574</v>
+        <v>-15196731.7229</v>
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" s="1">
@@ -12695,8 +12763,12 @@
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="2"/>
+      <c r="Y64" s="1">
+        <v>72984.5172</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA64" s="1">
         <v>28548534.96</v>
       </c>
@@ -12710,10 +12782,10 @@
         <v>0.22</v>
       </c>
       <c r="AE64" s="1">
-        <v>-1236331.64</v>
+        <v>-1309316.1572</v>
       </c>
       <c r="AF64" s="1">
-        <v>-15799818.214</v>
+        <v>-16506047.8801</v>
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" s="1">
@@ -12788,8 +12860,12 @@
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="2"/>
+      <c r="Y65" s="1">
+        <v>80492.9685</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA65" s="1">
         <v>31337388.3</v>
       </c>
@@ -12803,10 +12879,10 @@
         <v>0.22</v>
       </c>
       <c r="AE65" s="1">
-        <v>-1361664.802</v>
+        <v>-1442157.7705</v>
       </c>
       <c r="AF65" s="1">
-        <v>-17161483.016</v>
+        <v>-17948205.6506</v>
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="1">
@@ -12881,8 +12957,12 @@
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="2"/>
+      <c r="Y66" s="1">
+        <v>88752.2664</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA66" s="1">
         <v>34405127.52</v>
       </c>
@@ -12896,10 +12976,10 @@
         <v>0.22</v>
       </c>
       <c r="AE66" s="1">
-        <v>-1499530.944</v>
+        <v>-1588283.2104</v>
       </c>
       <c r="AF66" s="1">
-        <v>-18661013.96</v>
+        <v>-19536488.861</v>
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" s="1">
@@ -12974,8 +13054,12 @@
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="2"/>
+      <c r="Y67" s="1">
+        <v>97837.4922</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA67" s="1">
         <v>37779639.96</v>
       </c>
@@ -12989,10 +13073,10 @@
         <v>0.22</v>
       </c>
       <c r="AE67" s="1">
-        <v>-1651184.206</v>
+        <v>-1749021.6982</v>
       </c>
       <c r="AF67" s="1">
-        <v>-20312198.166</v>
+        <v>-21285510.5592</v>
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" s="1">
@@ -13067,8 +13151,12 @@
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="2"/>
+      <c r="Y68" s="1">
+        <v>107831.241</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA68" s="1">
         <v>41491603.8</v>
       </c>
@@ -13082,10 +13170,10 @@
         <v>0.22</v>
       </c>
       <c r="AE68" s="1">
-        <v>-1818002.882</v>
+        <v>-1925834.123</v>
       </c>
       <c r="AF68" s="1">
-        <v>-22130201.048</v>
+        <v>-23211344.6822</v>
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="1">
@@ -13160,8 +13248,12 @@
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="2"/>
+      <c r="Y69" s="1">
+        <v>118824.3651</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA69" s="1">
         <v>45574764.18</v>
       </c>
@@ -13175,10 +13267,10 @@
         <v>0.22</v>
       </c>
       <c r="AE69" s="1">
-        <v>-2001503.256</v>
+        <v>-2120327.6211</v>
       </c>
       <c r="AF69" s="1">
-        <v>-24131704.304</v>
+        <v>-25331672.3033</v>
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="1">
@@ -13253,8 +13345,12 @@
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="2"/>
+      <c r="Y70" s="1">
+        <v>130916.8014</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA70" s="1">
         <v>50066240.52</v>
       </c>
@@ -13268,10 +13364,10 @@
         <v>0.22</v>
       </c>
       <c r="AE70" s="1">
-        <v>-2203353.838</v>
+        <v>-2334270.6394</v>
       </c>
       <c r="AF70" s="1">
-        <v>-26335058.142</v>
+        <v>-27665942.9427</v>
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" s="1">
@@ -13346,8 +13442,12 @@
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="2"/>
+      <c r="Y71" s="1">
+        <v>144218.4807</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA71" s="1">
         <v>55006864.26</v>
       </c>
@@ -13361,10 +13461,10 @@
         <v>0.22</v>
       </c>
       <c r="AE71" s="1">
-        <v>-2425389.132</v>
+        <v>-2569607.6127</v>
       </c>
       <c r="AF71" s="1">
-        <v>-28760447.274</v>
+        <v>-30235550.5554</v>
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" s="1">
@@ -13439,8 +13539,12 @@
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="16"/>
+      <c r="Y72" s="5">
+        <v>158850.3294</v>
+      </c>
+      <c r="Z72" s="16">
+        <v>0.003</v>
+      </c>
       <c r="AA72" s="5">
         <v>60441550.92</v>
       </c>
@@ -13454,10 +13558,10 @@
         <v>0.22</v>
       </c>
       <c r="AE72" s="5">
-        <v>-2669628.134</v>
+        <v>-2828478.4634</v>
       </c>
       <c r="AF72" s="5">
-        <v>-31430075.408</v>
+        <v>-33064029.0188</v>
       </c>
       <c r="AG72" s="16"/>
       <c r="AH72" s="5">
